--- a/pred_ohlcv/54/2019-10-17 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 BAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>257</v>
       </c>
       <c r="F2" t="n">
-        <v>5142.6344</v>
+        <v>1409.5425</v>
       </c>
       <c r="G2" t="n">
-        <v>259.0833333333333</v>
+        <v>259.1166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
-        <v>480.0057</v>
+        <v>5142.6344</v>
       </c>
       <c r="G3" t="n">
-        <v>259.1</v>
+        <v>259.0833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>259</v>
       </c>
       <c r="F4" t="n">
-        <v>180.0009</v>
+        <v>480.0057</v>
       </c>
       <c r="G4" t="n">
-        <v>259.1166666666667</v>
+        <v>259.1</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>259</v>
       </c>
       <c r="F5" t="n">
-        <v>170.3011</v>
+        <v>180.0009</v>
       </c>
       <c r="G5" t="n">
-        <v>259.1666666666667</v>
+        <v>259.1166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>259</v>
       </c>
       <c r="C6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D6" t="n">
         <v>259</v>
       </c>
       <c r="E6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F6" t="n">
-        <v>19309.8374</v>
+        <v>170.3011</v>
       </c>
       <c r="G6" t="n">
-        <v>259.15</v>
+        <v>259.1666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
-        <v>281.4399</v>
+        <v>19309.8374</v>
       </c>
       <c r="G7" t="n">
-        <v>259.1333333333333</v>
+        <v>259.15</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>258</v>
       </c>
       <c r="F8" t="n">
-        <v>212.0962</v>
+        <v>281.4399</v>
       </c>
       <c r="G8" t="n">
         <v>259.1333333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>258</v>
       </c>
       <c r="F9" t="n">
-        <v>1786.776</v>
+        <v>212.0962</v>
       </c>
       <c r="G9" t="n">
-        <v>259.2</v>
+        <v>259.1333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>258</v>
       </c>
       <c r="F10" t="n">
-        <v>461.3739</v>
+        <v>1786.776</v>
       </c>
       <c r="G10" t="n">
-        <v>259.25</v>
+        <v>259.2</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>258</v>
       </c>
       <c r="F11" t="n">
-        <v>65.96510000000001</v>
+        <v>461.3739</v>
       </c>
       <c r="G11" t="n">
-        <v>259.2833333333334</v>
+        <v>259.25</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" t="n">
-        <v>69.277</v>
+        <v>65.96510000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>259.3</v>
+        <v>259.2833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>259</v>
       </c>
       <c r="F13" t="n">
-        <v>111.5365</v>
+        <v>69.277</v>
       </c>
       <c r="G13" t="n">
-        <v>259.3166666666667</v>
+        <v>259.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>259</v>
       </c>
       <c r="F14" t="n">
-        <v>148.6872</v>
+        <v>111.5365</v>
       </c>
       <c r="G14" t="n">
-        <v>259.3333333333333</v>
+        <v>259.3166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>395</v>
+        <v>148.6872</v>
       </c>
       <c r="G15" t="n">
-        <v>259.3666666666667</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>258</v>
       </c>
       <c r="F16" t="n">
-        <v>145.419</v>
+        <v>395</v>
       </c>
       <c r="G16" t="n">
         <v>259.3666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>258</v>
       </c>
       <c r="F17" t="n">
-        <v>235.4941</v>
+        <v>145.419</v>
       </c>
       <c r="G17" t="n">
-        <v>259.35</v>
+        <v>259.3666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" t="n">
-        <v>394.3613</v>
+        <v>235.4941</v>
       </c>
       <c r="G18" t="n">
-        <v>259.3</v>
+        <v>259.35</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>394.3613</v>
       </c>
       <c r="G19" t="n">
         <v>259.3</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" t="n">
-        <v>134.7656</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>259.2666666666667</v>
+        <v>259.3</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F21" t="n">
-        <v>280</v>
+        <v>134.7656</v>
       </c>
       <c r="G21" t="n">
-        <v>259.2166666666666</v>
+        <v>259.2666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>255</v>
       </c>
       <c r="F22" t="n">
-        <v>2515.1549</v>
+        <v>280</v>
       </c>
       <c r="G22" t="n">
-        <v>259.1666666666667</v>
+        <v>259.2166666666666</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C23" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D23" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E23" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F23" t="n">
-        <v>4270.9414</v>
+        <v>2515.1549</v>
       </c>
       <c r="G23" t="n">
-        <v>259.0833333333333</v>
+        <v>259.1666666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F24" t="n">
-        <v>24.8682</v>
+        <v>4270.9414</v>
       </c>
       <c r="G24" t="n">
-        <v>259.0333333333334</v>
+        <v>259.0833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>255</v>
       </c>
       <c r="F25" t="n">
-        <v>2660</v>
+        <v>24.8682</v>
       </c>
       <c r="G25" t="n">
-        <v>258.9666666666666</v>
+        <v>259.0333333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>255</v>
       </c>
       <c r="F26" t="n">
-        <v>2297.9161</v>
+        <v>2660</v>
       </c>
       <c r="G26" t="n">
-        <v>258.8833333333333</v>
+        <v>258.9666666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" t="n">
-        <v>412.9921</v>
+        <v>2297.9161</v>
       </c>
       <c r="G27" t="n">
-        <v>258.8333333333333</v>
+        <v>258.8833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C28" t="n">
         <v>256</v>
@@ -1093,15 +1176,18 @@
         <v>256</v>
       </c>
       <c r="E28" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F28" t="n">
-        <v>532.0359999999999</v>
+        <v>412.9921</v>
       </c>
       <c r="G28" t="n">
-        <v>258.7666666666667</v>
+        <v>258.8333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C29" t="n">
         <v>256</v>
@@ -1119,15 +1205,18 @@
         <v>256</v>
       </c>
       <c r="E29" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F29" t="n">
-        <v>449.039</v>
+        <v>532.0359999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>258.6833333333333</v>
+        <v>258.7666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" t="n">
         <v>256</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F30" t="n">
-        <v>7022.4918</v>
+        <v>449.039</v>
       </c>
       <c r="G30" t="n">
-        <v>258.6166666666667</v>
+        <v>258.6833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C31" t="n">
         <v>256</v>
       </c>
       <c r="D31" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F31" t="n">
-        <v>751.4902</v>
+        <v>7022.4918</v>
       </c>
       <c r="G31" t="n">
-        <v>258.5166666666667</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" t="n">
         <v>256</v>
@@ -1197,15 +1292,18 @@
         <v>256</v>
       </c>
       <c r="E32" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F32" t="n">
-        <v>301.5233</v>
+        <v>751.4902</v>
       </c>
       <c r="G32" t="n">
-        <v>258.4166666666667</v>
+        <v>258.5166666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>256</v>
       </c>
       <c r="F33" t="n">
-        <v>462.2165</v>
+        <v>301.5233</v>
       </c>
       <c r="G33" t="n">
-        <v>258.3166666666667</v>
+        <v>258.4166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>256</v>
       </c>
       <c r="C34" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D34" t="n">
         <v>256</v>
       </c>
       <c r="E34" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F34" t="n">
-        <v>1789.8016</v>
+        <v>462.2165</v>
       </c>
       <c r="G34" t="n">
-        <v>258.1666666666667</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>256</v>
       </c>
       <c r="C35" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D35" t="n">
         <v>256</v>
       </c>
       <c r="E35" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F35" t="n">
-        <v>40.8093</v>
+        <v>1789.8016</v>
       </c>
       <c r="G35" t="n">
-        <v>258.05</v>
+        <v>258.1666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>256</v>
       </c>
       <c r="F36" t="n">
-        <v>56.525</v>
+        <v>40.8093</v>
       </c>
       <c r="G36" t="n">
-        <v>257.9166666666667</v>
+        <v>258.05</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F37" t="n">
-        <v>443.8754</v>
+        <v>56.525</v>
       </c>
       <c r="G37" t="n">
-        <v>257.8</v>
+        <v>257.9166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F38" t="n">
-        <v>421.8868</v>
+        <v>443.8754</v>
       </c>
       <c r="G38" t="n">
-        <v>257.6833333333333</v>
+        <v>257.8</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F39" t="n">
-        <v>770.7584000000001</v>
+        <v>421.8868</v>
       </c>
       <c r="G39" t="n">
-        <v>257.5833333333333</v>
+        <v>257.6833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>255</v>
       </c>
       <c r="F40" t="n">
-        <v>457.4949</v>
+        <v>770.7584000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>257.5</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F41" t="n">
-        <v>206.6315</v>
+        <v>457.4949</v>
       </c>
       <c r="G41" t="n">
-        <v>257.4166666666667</v>
+        <v>257.5</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C42" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E42" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F42" t="n">
-        <v>1577.2763</v>
+        <v>206.6315</v>
       </c>
       <c r="G42" t="n">
-        <v>257.3166666666667</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" t="n">
         <v>255</v>
@@ -1483,15 +1611,18 @@
         <v>255</v>
       </c>
       <c r="E43" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F43" t="n">
-        <v>2150.001</v>
+        <v>1577.2763</v>
       </c>
       <c r="G43" t="n">
-        <v>257.1833333333333</v>
+        <v>257.3166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>255</v>
       </c>
       <c r="F44" t="n">
-        <v>2140.5282</v>
+        <v>2150.001</v>
       </c>
       <c r="G44" t="n">
-        <v>257.05</v>
+        <v>257.1833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>255</v>
       </c>
       <c r="F45" t="n">
-        <v>296.3919</v>
+        <v>2140.5282</v>
       </c>
       <c r="G45" t="n">
-        <v>256.9333333333333</v>
+        <v>257.05</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>255</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>296.3919</v>
       </c>
       <c r="G46" t="n">
-        <v>256.8333333333333</v>
+        <v>256.9333333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>255</v>
       </c>
       <c r="F47" t="n">
-        <v>263.797</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>256.75</v>
+        <v>256.8333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F48" t="n">
-        <v>11727.0958</v>
+        <v>263.797</v>
       </c>
       <c r="G48" t="n">
-        <v>256.7166666666666</v>
+        <v>256.75</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,15 +1785,18 @@
         <v>256</v>
       </c>
       <c r="E49" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F49" t="n">
-        <v>701.1559</v>
+        <v>11727.0958</v>
       </c>
       <c r="G49" t="n">
-        <v>256.6666666666667</v>
+        <v>256.7166666666666</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>256</v>
       </c>
       <c r="F50" t="n">
-        <v>1465</v>
+        <v>701.1559</v>
       </c>
       <c r="G50" t="n">
-        <v>256.6166666666667</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>256</v>
       </c>
       <c r="F51" t="n">
-        <v>275.0386</v>
+        <v>1465</v>
       </c>
       <c r="G51" t="n">
-        <v>256.5666666666667</v>
+        <v>256.6166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1863,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C52" t="n">
         <v>256</v>
@@ -1717,15 +1872,18 @@
         <v>256</v>
       </c>
       <c r="E52" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F52" t="n">
-        <v>366.4281</v>
+        <v>275.0386</v>
       </c>
       <c r="G52" t="n">
-        <v>256.5166666666667</v>
+        <v>256.5666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C53" t="n">
         <v>256</v>
@@ -1743,15 +1901,18 @@
         <v>256</v>
       </c>
       <c r="E53" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" t="n">
-        <v>3939.1693</v>
+        <v>366.4281</v>
       </c>
       <c r="G53" t="n">
-        <v>256.4666666666666</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F54" t="n">
-        <v>409</v>
+        <v>3939.1693</v>
       </c>
       <c r="G54" t="n">
         <v>256.4666666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" t="n">
-        <v>1470</v>
+        <v>409</v>
       </c>
       <c r="G55" t="n">
-        <v>256.4833333333333</v>
+        <v>256.4666666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F56" t="n">
-        <v>589.9127999999999</v>
+        <v>1470</v>
       </c>
       <c r="G56" t="n">
         <v>256.4833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" t="n">
-        <v>129.2078</v>
+        <v>589.9127999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>256.5</v>
+        <v>256.4833333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" t="n">
-        <v>829.7686</v>
+        <v>129.2078</v>
       </c>
       <c r="G58" t="n">
-        <v>256.5166666666667</v>
+        <v>256.5</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" t="n">
-        <v>1076.806</v>
+        <v>829.7686</v>
       </c>
       <c r="G59" t="n">
-        <v>256.5666666666667</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F60" t="n">
-        <v>15</v>
+        <v>1076.806</v>
       </c>
       <c r="G60" t="n">
-        <v>256.6166666666667</v>
+        <v>256.5666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" t="n">
-        <v>2999.9998</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>256.6833333333333</v>
+        <v>256.6166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>261</v>
       </c>
       <c r="F62" t="n">
-        <v>999.9999</v>
+        <v>2999.9998</v>
       </c>
       <c r="G62" t="n">
-        <v>256.75</v>
+        <v>256.6833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" t="n">
-        <v>217.9338</v>
+        <v>999.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>256.8</v>
+        <v>256.75</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>73.2787</v>
+        <v>217.9338</v>
       </c>
       <c r="G64" t="n">
-        <v>256.85</v>
+        <v>256.8</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F65" t="n">
-        <v>1346.9829</v>
+        <v>73.2787</v>
       </c>
       <c r="G65" t="n">
-        <v>256.9166666666667</v>
+        <v>256.85</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>263</v>
       </c>
       <c r="F66" t="n">
-        <v>414.4334</v>
+        <v>1346.9829</v>
       </c>
       <c r="G66" t="n">
-        <v>257.0166666666667</v>
+        <v>256.9166666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D67" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F67" t="n">
-        <v>7759.1909</v>
+        <v>414.4334</v>
       </c>
       <c r="G67" t="n">
-        <v>257.0666666666667</v>
+        <v>257.0166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,25 +2327,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C68" t="n">
         <v>261</v>
       </c>
       <c r="D68" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E68" t="n">
         <v>261</v>
       </c>
       <c r="F68" t="n">
-        <v>53.4124</v>
+        <v>7759.1909</v>
       </c>
       <c r="G68" t="n">
-        <v>257.1166666666667</v>
+        <v>257.0666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F69" t="n">
-        <v>24.2029</v>
+        <v>53.4124</v>
       </c>
       <c r="G69" t="n">
-        <v>257.1833333333333</v>
+        <v>257.1166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>262</v>
       </c>
       <c r="F70" t="n">
-        <v>2241</v>
+        <v>24.2029</v>
       </c>
       <c r="G70" t="n">
-        <v>257.25</v>
+        <v>257.1833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>2241</v>
       </c>
       <c r="G71" t="n">
-        <v>257.3333333333333</v>
+        <v>257.25</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F72" t="n">
-        <v>1359.0032</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>257.3833333333333</v>
+        <v>257.3333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F73" t="n">
-        <v>37.7724</v>
+        <v>1359.0032</v>
       </c>
       <c r="G73" t="n">
-        <v>257.4166666666667</v>
+        <v>257.3833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F74" t="n">
-        <v>480</v>
+        <v>37.7724</v>
       </c>
       <c r="G74" t="n">
-        <v>257.4333333333333</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>260</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="G75" t="n">
-        <v>257.4666666666666</v>
+        <v>257.4333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>260</v>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>257.5</v>
+        <v>257.4666666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>260</v>
       </c>
       <c r="C77" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D77" t="n">
         <v>260</v>
       </c>
       <c r="E77" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
-        <v>239.9941</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>257.5166666666667</v>
+        <v>257.5</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>260</v>
       </c>
       <c r="C78" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D78" t="n">
         <v>260</v>
       </c>
       <c r="E78" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F78" t="n">
-        <v>385.0611</v>
+        <v>239.9941</v>
       </c>
       <c r="G78" t="n">
-        <v>257.5833333333333</v>
+        <v>257.5166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>260</v>
       </c>
       <c r="F79" t="n">
-        <v>167.0653</v>
+        <v>385.0611</v>
       </c>
       <c r="G79" t="n">
-        <v>257.6166666666667</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C80" t="n">
         <v>260</v>
       </c>
       <c r="D80" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E80" t="n">
         <v>260</v>
       </c>
       <c r="F80" t="n">
-        <v>251.0627</v>
+        <v>167.0653</v>
       </c>
       <c r="G80" t="n">
-        <v>257.6833333333333</v>
+        <v>257.6166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>261</v>
       </c>
       <c r="C81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D81" t="n">
         <v>261</v>
       </c>
       <c r="E81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F81" t="n">
-        <v>47.907</v>
+        <v>251.0627</v>
       </c>
       <c r="G81" t="n">
-        <v>257.7833333333334</v>
+        <v>257.6833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D82" t="n">
         <v>261</v>
       </c>
       <c r="E82" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F82" t="n">
-        <v>712.8816</v>
+        <v>47.907</v>
       </c>
       <c r="G82" t="n">
-        <v>257.85</v>
+        <v>257.7833333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C83" t="n">
         <v>259</v>
       </c>
       <c r="D83" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E83" t="n">
         <v>259</v>
       </c>
       <c r="F83" t="n">
-        <v>674.4050999999999</v>
+        <v>712.8816</v>
       </c>
       <c r="G83" t="n">
-        <v>257.95</v>
+        <v>257.85</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>674.4050999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>258.0333333333334</v>
+        <v>257.95</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>260</v>
       </c>
       <c r="C85" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" t="n">
         <v>260</v>
       </c>
       <c r="E85" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>1153.2327</v>
+        <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>258.1</v>
+        <v>258.0333333333334</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>260</v>
       </c>
       <c r="C86" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" t="n">
         <v>260</v>
       </c>
       <c r="E86" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F86" t="n">
-        <v>934.1185</v>
+        <v>1153.2327</v>
       </c>
       <c r="G86" t="n">
-        <v>258.1833333333333</v>
+        <v>258.1</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>260</v>
       </c>
       <c r="F87" t="n">
-        <v>398.2294</v>
+        <v>934.1185</v>
       </c>
       <c r="G87" t="n">
-        <v>258.25</v>
+        <v>258.1833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>260</v>
       </c>
       <c r="F88" t="n">
-        <v>748.4127999999999</v>
+        <v>398.2294</v>
       </c>
       <c r="G88" t="n">
-        <v>258.3166666666667</v>
+        <v>258.25</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>621.88</v>
+        <v>748.4127999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>258.4</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E90" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F90" t="n">
-        <v>1844.5671</v>
+        <v>621.88</v>
       </c>
       <c r="G90" t="n">
-        <v>258.4666666666666</v>
+        <v>258.4</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C91" t="n">
         <v>260</v>
       </c>
       <c r="D91" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F91" t="n">
-        <v>5476.0177</v>
+        <v>1844.5671</v>
       </c>
       <c r="G91" t="n">
-        <v>258.5333333333334</v>
+        <v>258.4666666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>261</v>
       </c>
       <c r="C92" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" t="n">
         <v>261</v>
       </c>
       <c r="E92" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F92" t="n">
-        <v>1538</v>
+        <v>5476.0177</v>
       </c>
       <c r="G92" t="n">
-        <v>258.6166666666667</v>
+        <v>258.5333333333334</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>261</v>
       </c>
       <c r="F93" t="n">
-        <v>100.5903</v>
+        <v>1538</v>
       </c>
       <c r="G93" t="n">
-        <v>258.7</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F94" t="n">
-        <v>359.2497</v>
+        <v>100.5903</v>
       </c>
       <c r="G94" t="n">
-        <v>258.8333333333333</v>
+        <v>258.7</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>262</v>
       </c>
       <c r="F95" t="n">
-        <v>836</v>
+        <v>359.2497</v>
       </c>
       <c r="G95" t="n">
-        <v>258.9333333333333</v>
+        <v>258.8333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F96" t="n">
-        <v>11106.5131</v>
+        <v>836</v>
       </c>
       <c r="G96" t="n">
-        <v>259.0166666666667</v>
+        <v>258.9333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>261</v>
       </c>
       <c r="F97" t="n">
-        <v>9834.9635</v>
+        <v>11106.5131</v>
       </c>
       <c r="G97" t="n">
-        <v>259.1333333333333</v>
+        <v>259.0166666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F98" t="n">
-        <v>1140</v>
+        <v>9834.9635</v>
       </c>
       <c r="G98" t="n">
-        <v>259.25</v>
+        <v>259.1333333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>260</v>
       </c>
       <c r="F99" t="n">
-        <v>42.0636</v>
+        <v>1140</v>
       </c>
       <c r="G99" t="n">
-        <v>259.3333333333333</v>
+        <v>259.25</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F100" t="n">
-        <v>37.9846</v>
+        <v>42.0636</v>
       </c>
       <c r="G100" t="n">
-        <v>259.4333333333333</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F101" t="n">
-        <v>42.0637</v>
+        <v>37.9846</v>
       </c>
       <c r="G101" t="n">
-        <v>259.5333333333334</v>
+        <v>259.4333333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>260</v>
       </c>
       <c r="F102" t="n">
-        <v>130.2698</v>
+        <v>42.0637</v>
       </c>
       <c r="G102" t="n">
-        <v>259.6166666666667</v>
+        <v>259.5333333333334</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C103" t="n">
         <v>260</v>
       </c>
       <c r="D103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" t="n">
         <v>260</v>
       </c>
       <c r="F103" t="n">
-        <v>60.6779</v>
+        <v>130.2698</v>
       </c>
       <c r="G103" t="n">
-        <v>259.7</v>
+        <v>259.6166666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>261</v>
       </c>
       <c r="C104" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D104" t="n">
         <v>261</v>
       </c>
       <c r="E104" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F104" t="n">
-        <v>2.4175</v>
+        <v>60.6779</v>
       </c>
       <c r="G104" t="n">
-        <v>259.8</v>
+        <v>259.7</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F105" t="n">
-        <v>21.0318</v>
+        <v>2.4175</v>
       </c>
       <c r="G105" t="n">
-        <v>259.8833333333333</v>
+        <v>259.8</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F106" t="n">
-        <v>2.3688</v>
+        <v>21.0318</v>
       </c>
       <c r="G106" t="n">
-        <v>260.0166666666667</v>
+        <v>259.8833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>263</v>
       </c>
       <c r="F107" t="n">
-        <v>151.095</v>
+        <v>2.3688</v>
       </c>
       <c r="G107" t="n">
-        <v>260.15</v>
+        <v>260.0166666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>263</v>
       </c>
       <c r="C108" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D108" t="n">
         <v>263</v>
       </c>
       <c r="E108" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F108" t="n">
-        <v>591.7134</v>
+        <v>151.095</v>
       </c>
       <c r="G108" t="n">
-        <v>260.2333333333333</v>
+        <v>260.15</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>263</v>
       </c>
       <c r="C109" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D109" t="n">
         <v>263</v>
       </c>
       <c r="E109" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F109" t="n">
-        <v>541.2234</v>
+        <v>591.7134</v>
       </c>
       <c r="G109" t="n">
-        <v>260.35</v>
+        <v>260.2333333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>541.2234</v>
       </c>
       <c r="G110" t="n">
-        <v>260.4833333333333</v>
+        <v>260.35</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>264</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>260.6166666666667</v>
+        <v>260.4833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>264</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>260.75</v>
+        <v>260.6166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>264</v>
       </c>
       <c r="F113" t="n">
-        <v>3030.303</v>
+        <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>260.8833333333333</v>
+        <v>260.75</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>264</v>
       </c>
       <c r="C114" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D114" t="n">
         <v>264</v>
       </c>
       <c r="E114" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F114" t="n">
-        <v>3392</v>
+        <v>3030.303</v>
       </c>
       <c r="G114" t="n">
-        <v>260.9166666666667</v>
+        <v>260.8833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C115" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D115" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E115" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F115" t="n">
-        <v>156.2897</v>
+        <v>3392</v>
       </c>
       <c r="G115" t="n">
-        <v>260.9833333333333</v>
+        <v>260.9166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F116" t="n">
-        <v>3700.0951</v>
+        <v>156.2897</v>
       </c>
       <c r="G116" t="n">
-        <v>261.05</v>
+        <v>260.9833333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>262</v>
       </c>
       <c r="F117" t="n">
-        <v>15.2278</v>
+        <v>3700.0951</v>
       </c>
       <c r="G117" t="n">
-        <v>261.1</v>
+        <v>261.05</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>262</v>
       </c>
       <c r="F118" t="n">
-        <v>5831.6121</v>
+        <v>15.2278</v>
       </c>
       <c r="G118" t="n">
-        <v>261.1333333333333</v>
+        <v>261.1</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F119" t="n">
-        <v>6365.6007</v>
+        <v>5831.6121</v>
       </c>
       <c r="G119" t="n">
-        <v>261.1666666666667</v>
+        <v>261.1333333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D120" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E120" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F120" t="n">
-        <v>1448.9281</v>
+        <v>6365.6007</v>
       </c>
       <c r="G120" t="n">
-        <v>261.1833333333333</v>
+        <v>261.1666666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>262</v>
       </c>
       <c r="C121" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D121" t="n">
         <v>262</v>
       </c>
       <c r="E121" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F121" t="n">
-        <v>156.2897</v>
+        <v>1448.9281</v>
       </c>
       <c r="G121" t="n">
-        <v>261.2</v>
+        <v>261.1833333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F122" t="n">
-        <v>2010</v>
+        <v>156.2897</v>
       </c>
       <c r="G122" t="n">
-        <v>261.2333333333333</v>
+        <v>261.2</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F123" t="n">
-        <v>11.2781</v>
+        <v>2010</v>
       </c>
       <c r="G123" t="n">
-        <v>261.2666666666667</v>
+        <v>261.2333333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F124" t="n">
-        <v>1520.9125</v>
+        <v>11.2781</v>
       </c>
       <c r="G124" t="n">
-        <v>261.2833333333334</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>263</v>
       </c>
       <c r="F125" t="n">
-        <v>1355.0646</v>
+        <v>1520.9125</v>
       </c>
       <c r="G125" t="n">
         <v>261.2833333333334</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F126" t="n">
-        <v>2162</v>
+        <v>1355.0646</v>
       </c>
       <c r="G126" t="n">
-        <v>261.2666666666667</v>
+        <v>261.2833333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>262</v>
       </c>
       <c r="F127" t="n">
-        <v>479.5453</v>
+        <v>2162</v>
       </c>
       <c r="G127" t="n">
-        <v>261.2833333333334</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F128" t="n">
-        <v>2060.7452</v>
+        <v>479.5453</v>
       </c>
       <c r="G128" t="n">
-        <v>261.2666666666667</v>
+        <v>261.2833333333334</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3725,9 +4111,12 @@
         <v>2060.7452</v>
       </c>
       <c r="G129" t="n">
-        <v>261.2333333333333</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F130" t="n">
-        <v>3385.2829</v>
+        <v>2060.7452</v>
       </c>
       <c r="G130" t="n">
         <v>261.2333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>262</v>
       </c>
       <c r="F131" t="n">
-        <v>3496.2395</v>
+        <v>3385.2829</v>
       </c>
       <c r="G131" t="n">
-        <v>261.2166666666666</v>
+        <v>261.2333333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>3496.2395</v>
       </c>
       <c r="G132" t="n">
-        <v>261.2333333333333</v>
+        <v>261.2166666666666</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>261.25</v>
+        <v>261.2333333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F134" t="n">
-        <v>1011</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>261.3166666666667</v>
+        <v>261.25</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="G135" t="n">
-        <v>261.4</v>
+        <v>261.3166666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>265</v>
       </c>
       <c r="C136" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D136" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E136" t="n">
         <v>265</v>
       </c>
       <c r="F136" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>261.5</v>
+        <v>261.4</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,7 +4328,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137" t="n">
         <v>266</v>
@@ -3927,15 +4337,18 @@
         <v>266</v>
       </c>
       <c r="E137" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F137" t="n">
-        <v>500.0346</v>
+        <v>2200</v>
       </c>
       <c r="G137" t="n">
-        <v>261.6166666666667</v>
+        <v>261.5</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F138" t="n">
-        <v>172.3281</v>
+        <v>500.0346</v>
       </c>
       <c r="G138" t="n">
-        <v>261.7</v>
+        <v>261.6166666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>265</v>
       </c>
       <c r="C139" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D139" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E139" t="n">
         <v>265</v>
       </c>
       <c r="F139" t="n">
-        <v>1450.0657</v>
+        <v>172.3281</v>
       </c>
       <c r="G139" t="n">
-        <v>261.8</v>
+        <v>261.7</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,7 +4415,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C140" t="n">
         <v>266</v>
@@ -4005,15 +4424,18 @@
         <v>266</v>
       </c>
       <c r="E140" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F140" t="n">
-        <v>323.7465</v>
+        <v>1450.0657</v>
       </c>
       <c r="G140" t="n">
-        <v>261.9</v>
+        <v>261.8</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F141" t="n">
-        <v>3615.1455</v>
+        <v>323.7465</v>
       </c>
       <c r="G141" t="n">
-        <v>261.95</v>
+        <v>261.9</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F142" t="n">
-        <v>226.2535</v>
+        <v>3615.1455</v>
       </c>
       <c r="G142" t="n">
-        <v>262.0666666666667</v>
+        <v>261.95</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F143" t="n">
-        <v>1631.8735</v>
+        <v>226.2535</v>
       </c>
       <c r="G143" t="n">
-        <v>262.2</v>
+        <v>262.0666666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,21 +4534,24 @@
         <v>267</v>
       </c>
       <c r="C144" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D144" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E144" t="n">
         <v>267</v>
       </c>
       <c r="F144" t="n">
-        <v>2.0001</v>
+        <v>1631.8735</v>
       </c>
       <c r="G144" t="n">
-        <v>262.35</v>
+        <v>262.2</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>267</v>
       </c>
       <c r="F145" t="n">
-        <v>1761.1857</v>
+        <v>2.0001</v>
       </c>
       <c r="G145" t="n">
-        <v>262.5166666666667</v>
+        <v>262.35</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,22 +4592,25 @@
         <v>267</v>
       </c>
       <c r="C146" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D146" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E146" t="n">
         <v>267</v>
       </c>
       <c r="F146" t="n">
-        <v>96.9345</v>
+        <v>1761.1857</v>
       </c>
       <c r="G146" t="n">
-        <v>262.6333333333333</v>
+        <v>262.5166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>96.9345</v>
       </c>
       <c r="G147" t="n">
-        <v>262.7666666666667</v>
+        <v>262.6333333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>268</v>
       </c>
       <c r="C148" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D148" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E148" t="n">
         <v>268</v>
       </c>
       <c r="F148" t="n">
-        <v>15802.00151449814</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>262.9166666666667</v>
+        <v>262.7666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4233,21 +4679,24 @@
         <v>268</v>
       </c>
       <c r="C149" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D149" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E149" t="n">
         <v>268</v>
       </c>
       <c r="F149" t="n">
-        <v>197.0522</v>
+        <v>15802.00151449814</v>
       </c>
       <c r="G149" t="n">
-        <v>263.0333333333334</v>
+        <v>262.9166666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,22 +4708,25 @@
         <v>268</v>
       </c>
       <c r="C150" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D150" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E150" t="n">
         <v>268</v>
       </c>
       <c r="F150" t="n">
-        <v>7703.001</v>
+        <v>197.0522</v>
       </c>
       <c r="G150" t="n">
-        <v>263.1833333333333</v>
+        <v>263.0333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4285,21 +4737,24 @@
         <v>268</v>
       </c>
       <c r="C151" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D151" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E151" t="n">
         <v>268</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>7703.001</v>
       </c>
       <c r="G151" t="n">
-        <v>263.3166666666667</v>
+        <v>263.1833333333333</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>263.45</v>
+        <v>263.3166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>269</v>
       </c>
       <c r="F153" t="n">
-        <v>1247.6198</v>
+        <v>20</v>
       </c>
       <c r="G153" t="n">
-        <v>263.5833333333333</v>
+        <v>263.45</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,21 +4824,24 @@
         <v>269</v>
       </c>
       <c r="C154" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D154" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E154" t="n">
         <v>269</v>
       </c>
       <c r="F154" t="n">
-        <v>1598.5702</v>
+        <v>1247.6198</v>
       </c>
       <c r="G154" t="n">
-        <v>263.7166666666666</v>
+        <v>263.5833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C155" t="n">
         <v>270</v>
@@ -4395,15 +4859,18 @@
         <v>270</v>
       </c>
       <c r="E155" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F155" t="n">
-        <v>5804.5495</v>
+        <v>1598.5702</v>
       </c>
       <c r="G155" t="n">
-        <v>263.85</v>
+        <v>263.7166666666666</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F156" t="n">
-        <v>6950</v>
+        <v>5804.5495</v>
       </c>
       <c r="G156" t="n">
-        <v>264.0166666666667</v>
+        <v>263.85</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>271</v>
       </c>
       <c r="C157" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D157" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E157" t="n">
         <v>271</v>
       </c>
       <c r="F157" t="n">
-        <v>36.4877</v>
+        <v>6950</v>
       </c>
       <c r="G157" t="n">
-        <v>264.2166666666666</v>
+        <v>264.0166666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,25 +4937,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>271</v>
+      </c>
+      <c r="C158" t="n">
         <v>273</v>
-      </c>
-      <c r="C158" t="n">
-        <v>271</v>
       </c>
       <c r="D158" t="n">
         <v>273</v>
       </c>
       <c r="E158" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F158" t="n">
-        <v>15579.5454</v>
+        <v>36.4877</v>
       </c>
       <c r="G158" t="n">
-        <v>264.4</v>
+        <v>264.2166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4490,25 +4966,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C159" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D159" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E159" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F159" t="n">
-        <v>1110</v>
+        <v>15579.5454</v>
       </c>
       <c r="G159" t="n">
-        <v>264.5666666666667</v>
+        <v>264.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C160" t="n">
+        <v>270</v>
+      </c>
+      <c r="D160" t="n">
+        <v>270</v>
+      </c>
+      <c r="E160" t="n">
         <v>269</v>
       </c>
-      <c r="D160" t="n">
-        <v>271</v>
-      </c>
-      <c r="E160" t="n">
-        <v>268</v>
-      </c>
       <c r="F160" t="n">
-        <v>1481.248</v>
+        <v>1110</v>
       </c>
       <c r="G160" t="n">
-        <v>264.7</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4545,21 +5027,24 @@
         <v>271</v>
       </c>
       <c r="C161" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D161" t="n">
         <v>271</v>
       </c>
       <c r="E161" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F161" t="n">
-        <v>1057.0279</v>
+        <v>1481.248</v>
       </c>
       <c r="G161" t="n">
-        <v>264.8833333333333</v>
+        <v>264.7</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>271</v>
       </c>
       <c r="F162" t="n">
-        <v>2207.8594</v>
+        <v>1057.0279</v>
       </c>
       <c r="G162" t="n">
-        <v>265.0666666666667</v>
+        <v>264.8833333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F163" t="n">
-        <v>388.4204</v>
+        <v>2207.8594</v>
       </c>
       <c r="G163" t="n">
-        <v>265.2333333333333</v>
+        <v>265.0666666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>270</v>
       </c>
       <c r="F164" t="n">
-        <v>6552.0569</v>
+        <v>388.4204</v>
       </c>
       <c r="G164" t="n">
-        <v>265.3833333333333</v>
+        <v>265.2333333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>270</v>
       </c>
       <c r="F165" t="n">
-        <v>43</v>
+        <v>6552.0569</v>
       </c>
       <c r="G165" t="n">
-        <v>265.55</v>
+        <v>265.3833333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>270</v>
       </c>
       <c r="F166" t="n">
-        <v>1.3115</v>
+        <v>43</v>
       </c>
       <c r="G166" t="n">
-        <v>265.6666666666667</v>
+        <v>265.55</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C167" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D167" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E167" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F167" t="n">
-        <v>7000</v>
+        <v>1.3115</v>
       </c>
       <c r="G167" t="n">
-        <v>265.7</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C168" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D168" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E168" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F168" t="n">
-        <v>15.2842</v>
+        <v>7000</v>
       </c>
       <c r="G168" t="n">
-        <v>265.8166666666667</v>
+        <v>265.7</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C169" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D169" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E169" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F169" t="n">
-        <v>7617.8526</v>
+        <v>15.2842</v>
       </c>
       <c r="G169" t="n">
-        <v>265.8666666666667</v>
+        <v>265.8166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C170" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D170" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E170" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F170" t="n">
-        <v>2487.4263</v>
+        <v>7617.8526</v>
       </c>
       <c r="G170" t="n">
-        <v>265.9333333333333</v>
+        <v>265.8666666666667</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C171" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D171" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E171" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F171" t="n">
-        <v>31489.4999</v>
+        <v>2487.4263</v>
       </c>
       <c r="G171" t="n">
-        <v>266.0166666666667</v>
+        <v>265.9333333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C172" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D172" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E172" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F172" t="n">
-        <v>32.0873</v>
+        <v>31489.4999</v>
       </c>
       <c r="G172" t="n">
-        <v>266.0666666666667</v>
+        <v>266.0166666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>267</v>
       </c>
       <c r="F173" t="n">
-        <v>3.2178</v>
+        <v>32.0873</v>
       </c>
       <c r="G173" t="n">
-        <v>266.1166666666667</v>
+        <v>266.0666666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>3.2178</v>
       </c>
       <c r="G174" t="n">
-        <v>266.2666666666667</v>
+        <v>266.1166666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4921,9 +5445,12 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>266.3666666666667</v>
+        <v>266.2666666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,532 +5471,15 @@
         <v>269</v>
       </c>
       <c r="F176" t="n">
-        <v>9.7614</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>266.4833333333333</v>
+        <v>266.3666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>270</v>
-      </c>
-      <c r="C177" t="n">
-        <v>270</v>
-      </c>
-      <c r="D177" t="n">
-        <v>270</v>
-      </c>
-      <c r="E177" t="n">
-        <v>270</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1055.9313</v>
-      </c>
-      <c r="G177" t="n">
-        <v>266.6166666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>270</v>
-      </c>
-      <c r="C178" t="n">
-        <v>270</v>
-      </c>
-      <c r="D178" t="n">
-        <v>270</v>
-      </c>
-      <c r="E178" t="n">
-        <v>270</v>
-      </c>
-      <c r="F178" t="n">
-        <v>650</v>
-      </c>
-      <c r="G178" t="n">
-        <v>266.75</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>269</v>
-      </c>
-      <c r="C179" t="n">
-        <v>269</v>
-      </c>
-      <c r="D179" t="n">
-        <v>269</v>
-      </c>
-      <c r="E179" t="n">
-        <v>269</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2211</v>
-      </c>
-      <c r="G179" t="n">
-        <v>266.85</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>270</v>
-      </c>
-      <c r="C180" t="n">
-        <v>270</v>
-      </c>
-      <c r="D180" t="n">
-        <v>270</v>
-      </c>
-      <c r="E180" t="n">
-        <v>270</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5187.6481</v>
-      </c>
-      <c r="G180" t="n">
-        <v>267</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>269</v>
-      </c>
-      <c r="C181" t="n">
-        <v>269</v>
-      </c>
-      <c r="D181" t="n">
-        <v>269</v>
-      </c>
-      <c r="E181" t="n">
-        <v>269</v>
-      </c>
-      <c r="F181" t="n">
-        <v>3194</v>
-      </c>
-      <c r="G181" t="n">
-        <v>267.1166666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>269</v>
-      </c>
-      <c r="C182" t="n">
-        <v>269</v>
-      </c>
-      <c r="D182" t="n">
-        <v>269</v>
-      </c>
-      <c r="E182" t="n">
-        <v>269</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G182" t="n">
-        <v>267.2166666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>268</v>
-      </c>
-      <c r="C183" t="n">
-        <v>268</v>
-      </c>
-      <c r="D183" t="n">
-        <v>268</v>
-      </c>
-      <c r="E183" t="n">
-        <v>268</v>
-      </c>
-      <c r="F183" t="n">
-        <v>360.5205</v>
-      </c>
-      <c r="G183" t="n">
-        <v>267.2833333333334</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>267</v>
-      </c>
-      <c r="C184" t="n">
-        <v>266</v>
-      </c>
-      <c r="D184" t="n">
-        <v>267</v>
-      </c>
-      <c r="E184" t="n">
-        <v>266</v>
-      </c>
-      <c r="F184" t="n">
-        <v>15802.0015</v>
-      </c>
-      <c r="G184" t="n">
-        <v>267.3333333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>266</v>
-      </c>
-      <c r="C185" t="n">
-        <v>266</v>
-      </c>
-      <c r="D185" t="n">
-        <v>266</v>
-      </c>
-      <c r="E185" t="n">
-        <v>266</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>267.3833333333333</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>268</v>
-      </c>
-      <c r="C186" t="n">
-        <v>268</v>
-      </c>
-      <c r="D186" t="n">
-        <v>268</v>
-      </c>
-      <c r="E186" t="n">
-        <v>268</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1447.2947</v>
-      </c>
-      <c r="G186" t="n">
-        <v>267.4833333333333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>266</v>
-      </c>
-      <c r="C187" t="n">
-        <v>266</v>
-      </c>
-      <c r="D187" t="n">
-        <v>266</v>
-      </c>
-      <c r="E187" t="n">
-        <v>266</v>
-      </c>
-      <c r="F187" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>267.55</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>266</v>
-      </c>
-      <c r="C188" t="n">
-        <v>268</v>
-      </c>
-      <c r="D188" t="n">
-        <v>268</v>
-      </c>
-      <c r="E188" t="n">
-        <v>265</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5143.6765</v>
-      </c>
-      <c r="G188" t="n">
-        <v>267.6833333333333</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>267</v>
-      </c>
-      <c r="C189" t="n">
-        <v>268</v>
-      </c>
-      <c r="D189" t="n">
-        <v>268</v>
-      </c>
-      <c r="E189" t="n">
-        <v>267</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14450</v>
-      </c>
-      <c r="G189" t="n">
-        <v>267.8166666666667</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>269</v>
-      </c>
-      <c r="C190" t="n">
-        <v>270</v>
-      </c>
-      <c r="D190" t="n">
-        <v>270</v>
-      </c>
-      <c r="E190" t="n">
-        <v>269</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10281.2413</v>
-      </c>
-      <c r="G190" t="n">
-        <v>267.95</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>271</v>
-      </c>
-      <c r="C191" t="n">
-        <v>271</v>
-      </c>
-      <c r="D191" t="n">
-        <v>271</v>
-      </c>
-      <c r="E191" t="n">
-        <v>271</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1670</v>
-      </c>
-      <c r="G191" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>271</v>
-      </c>
-      <c r="C192" t="n">
-        <v>271</v>
-      </c>
-      <c r="D192" t="n">
-        <v>271</v>
-      </c>
-      <c r="E192" t="n">
-        <v>271</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1316.3911</v>
-      </c>
-      <c r="G192" t="n">
-        <v>268.2333333333333</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>272</v>
-      </c>
-      <c r="C193" t="n">
-        <v>273</v>
-      </c>
-      <c r="D193" t="n">
-        <v>273</v>
-      </c>
-      <c r="E193" t="n">
-        <v>272</v>
-      </c>
-      <c r="F193" t="n">
-        <v>12223.7582</v>
-      </c>
-      <c r="G193" t="n">
-        <v>268.4166666666667</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>273</v>
-      </c>
-      <c r="C194" t="n">
-        <v>273</v>
-      </c>
-      <c r="D194" t="n">
-        <v>273</v>
-      </c>
-      <c r="E194" t="n">
-        <v>273</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1535.5238</v>
-      </c>
-      <c r="G194" t="n">
-        <v>268.5666666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>274</v>
-      </c>
-      <c r="C195" t="n">
-        <v>274</v>
-      </c>
-      <c r="D195" t="n">
-        <v>274</v>
-      </c>
-      <c r="E195" t="n">
-        <v>274</v>
-      </c>
-      <c r="F195" t="n">
-        <v>24408.0291</v>
-      </c>
-      <c r="G195" t="n">
-        <v>268.7166666666666</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>273</v>
-      </c>
-      <c r="C196" t="n">
-        <v>273</v>
-      </c>
-      <c r="D196" t="n">
-        <v>273</v>
-      </c>
-      <c r="E196" t="n">
-        <v>273</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5631.897435897436</v>
-      </c>
-      <c r="G196" t="n">
-        <v>268.8333333333333</v>
-      </c>
-      <c r="H196" t="n">
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
